--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5C686-82B5-4F72-81A6-3040B2E2D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35EF3C5-B66F-46F9-BDE7-8BF1DF4FB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Kim Cương" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang Sức" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -79,63 +79,6 @@
     <t>certificateID</t>
   </si>
   <si>
-    <t>NCK-905</t>
-  </si>
-  <si>
-    <t>NCK-137</t>
-  </si>
-  <si>
-    <t>NCK-589</t>
-  </si>
-  <si>
-    <t>NCK-211</t>
-  </si>
-  <si>
-    <t>NCK-828</t>
-  </si>
-  <si>
-    <t>NCK-326</t>
-  </si>
-  <si>
-    <t>NCK-403</t>
-  </si>
-  <si>
-    <t>NCK-216</t>
-  </si>
-  <si>
-    <t>NCK-858</t>
-  </si>
-  <si>
-    <t>NCK-565</t>
-  </si>
-  <si>
-    <t>NCK-684</t>
-  </si>
-  <si>
-    <t>NCK-311</t>
-  </si>
-  <si>
-    <t>NCK-869</t>
-  </si>
-  <si>
-    <t>NCK-841</t>
-  </si>
-  <si>
-    <t>NCK-463</t>
-  </si>
-  <si>
-    <t>NCK-749</t>
-  </si>
-  <si>
-    <t>NCK-443</t>
-  </si>
-  <si>
-    <t>NCK-428</t>
-  </si>
-  <si>
-    <t>NCK-635</t>
-  </si>
-  <si>
     <t>WID-905</t>
   </si>
   <si>
@@ -250,12 +193,6 @@
     <t>CID-635</t>
   </si>
   <si>
-    <t>KIM CƯƠNG TỰ NHIÊN – 6.0MM</t>
-  </si>
-  <si>
-    <t>https://r2.fivemanage.com/BZMR0nG5HMWQZlsg7rbJy/kim-cuong.png</t>
-  </si>
-  <si>
     <t>VS1</t>
   </si>
   <si>
@@ -419,6 +356,90 @@
   </si>
   <si>
     <t>https://r2.fivemanage.com/BZMR0nG5HMWQZlsg7rbJy/kim-cuong-around.png</t>
+  </si>
+  <si>
+    <t>jewelryID</t>
+  </si>
+  <si>
+    <t>JID-695</t>
+  </si>
+  <si>
+    <t>JID-382</t>
+  </si>
+  <si>
+    <t>JID-309</t>
+  </si>
+  <si>
+    <t>JID-772</t>
+  </si>
+  <si>
+    <t>JID-295</t>
+  </si>
+  <si>
+    <t>JID-353</t>
+  </si>
+  <si>
+    <t>JID-559</t>
+  </si>
+  <si>
+    <t>JID-704</t>
+  </si>
+  <si>
+    <t>JID-190</t>
+  </si>
+  <si>
+    <t>JID-756</t>
+  </si>
+  <si>
+    <t>JID-786</t>
+  </si>
+  <si>
+    <t>JID-562</t>
+  </si>
+  <si>
+    <t>JID-611</t>
+  </si>
+  <si>
+    <t>JID-852</t>
+  </si>
+  <si>
+    <t>JID-266</t>
+  </si>
+  <si>
+    <t>JID-824</t>
+  </si>
+  <si>
+    <t>JID-204</t>
+  </si>
+  <si>
+    <t>JID-810</t>
+  </si>
+  <si>
+    <t>JID-438</t>
+  </si>
+  <si>
+    <t>JID-917</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>marterial</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>jewelryName</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -673,16 +694,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,7 +1068,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,22 +1086,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1111,21 +1129,21 @@
         <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1134,37 +1152,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>127</v>
+      <c r="N3" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,37 +1190,37 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>127</v>
+      <c r="N4" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1210,37 +1228,37 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
       <c r="H5" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1248,37 +1266,37 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1286,37 +1304,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1324,37 +1342,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>127</v>
+      <c r="J8" s="6"/>
+      <c r="K8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1362,37 +1380,37 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1400,37 +1418,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1438,37 +1456,37 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>127</v>
+        <v>57</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1476,37 +1494,37 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1514,37 +1532,37 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>126</v>
+      <c r="M13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1552,37 +1570,37 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1590,37 +1608,37 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1628,37 +1646,37 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>126</v>
+        <v>56</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1666,37 +1684,37 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1704,37 +1722,37 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1742,37 +1760,37 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1780,37 +1798,37 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1818,37 +1836,37 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1856,37 +1874,37 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1906,594 +1924,653 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42A2C7-B481-431C-9009-93DC686AB606}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="30" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1" xr:uid="{7BE97792-BBFA-48CD-BD8D-D02790A5D1A2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35EF3C5-B66F-46F9-BDE7-8BF1DF4FB7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F19164-8827-4903-B1B2-913408A5F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
@@ -349,15 +349,6 @@
     <t>Excellent</t>
   </si>
   <si>
-    <t>https://r2.fivemanage.com/BZMR0nG5HMWQZlsg7rbJy/kim-cuong-radiant.png</t>
-  </si>
-  <si>
-    <t>https://r2.fivemanage.com/BZMR0nG5HMWQZlsg7rbJy/kim-cuong-pear.png</t>
-  </si>
-  <si>
-    <t>https://r2.fivemanage.com/BZMR0nG5HMWQZlsg7rbJy/kim-cuong-around.png</t>
-  </si>
-  <si>
     <t>jewelryID</t>
   </si>
   <si>
@@ -440,6 +431,15 @@
   </si>
   <si>
     <t>female</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-radiant.png?alt=media&amp;token=75539b65-0aa4-49a4-aa3b-66089fd35992</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-pear.png?alt=media&amp;token=1633a872-33f9-4afe-a869-7ea96957faf1</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1182,10 +1182,10 @@
         <v>52</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1220,10 +1220,10 @@
         <v>53</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1258,10 +1258,10 @@
         <v>73</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1296,10 +1296,10 @@
         <v>52</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1334,10 +1334,10 @@
         <v>53</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1372,10 +1372,10 @@
         <v>74</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1410,10 +1410,10 @@
         <v>52</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1448,10 +1448,10 @@
         <v>53</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1486,10 +1486,10 @@
         <v>73</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1524,10 +1524,10 @@
         <v>52</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1562,10 +1562,10 @@
         <v>74</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1600,10 +1600,10 @@
         <v>52</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1638,10 +1638,10 @@
         <v>74</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1676,10 +1676,10 @@
         <v>53</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1714,10 +1714,10 @@
         <v>52</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1752,10 +1752,10 @@
         <v>73</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1790,10 +1790,10 @@
         <v>53</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1828,10 +1828,10 @@
         <v>52</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1866,10 +1866,10 @@
         <v>73</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1913,12 +1913,30 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{910F8CED-509B-48C9-B2C3-C4161025DB41}"/>
-    <hyperlink ref="N12" r:id="rId2" xr:uid="{9C191997-93B5-476D-B0CD-1C6091901C2F}"/>
-    <hyperlink ref="N17" r:id="rId3" xr:uid="{C6BDFE76-3DFD-457F-9CF2-7A55AAE94412}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{4B06AFB2-9015-47D2-9487-782D00DD716B}"/>
+    <hyperlink ref="N4:N9" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72" xr:uid="{1DBFE994-A772-4F2C-8527-73FC14DEF681}"/>
+    <hyperlink ref="N12" r:id="rId3" xr:uid="{6B1CC323-2ECA-4A87-BDBA-7749F7824179}"/>
+    <hyperlink ref="N17" r:id="rId4" xr:uid="{D57488B9-06B5-43B1-B171-7A42DEB05143}"/>
+    <hyperlink ref="N18" r:id="rId5" xr:uid="{DC32D6B6-BF95-4B95-B547-D09315E6369E}"/>
+    <hyperlink ref="N19" r:id="rId6" xr:uid="{A35E2F49-A725-4B43-8AF3-DDB3739CC609}"/>
+    <hyperlink ref="N21" r:id="rId7" xr:uid="{DF9FAD68-CED6-4F19-AB9A-E2C8D5326B0F}"/>
+    <hyperlink ref="N20" r:id="rId8" xr:uid="{91C7FA33-B321-487A-8389-5623EFD60F15}"/>
+    <hyperlink ref="N22" r:id="rId9" xr:uid="{99A9EB33-E223-47F1-817A-9483969EAA0A}"/>
+    <hyperlink ref="N4" r:id="rId10" xr:uid="{79248751-C92A-4637-8F9D-3CE8D9171759}"/>
+    <hyperlink ref="N5" r:id="rId11" xr:uid="{28BCBDAC-3EF9-4C1F-BF39-02EADB4B37F9}"/>
+    <hyperlink ref="N7" r:id="rId12" xr:uid="{10A7B3F3-53FB-460A-9BB6-680C25BA562E}"/>
+    <hyperlink ref="N9" r:id="rId13" xr:uid="{E3AAC7A4-6BB0-4821-9796-DC8DF22E8856}"/>
+    <hyperlink ref="N11" r:id="rId14" xr:uid="{1AFF66A9-FAAE-4A9B-AA44-33FA0396D119}"/>
+    <hyperlink ref="N6" r:id="rId15" xr:uid="{B5847082-AB16-4CC2-8FEB-A3E594797AAC}"/>
+    <hyperlink ref="N8" r:id="rId16" xr:uid="{FFEF9E3D-8E28-4B8B-B623-7572D3D10DB6}"/>
+    <hyperlink ref="N10" r:id="rId17" xr:uid="{0406CC87-7CCF-4B39-847A-7D638970830A}"/>
+    <hyperlink ref="N13" r:id="rId18" xr:uid="{F237D6BB-4BDD-4901-ADED-AEE9000B85F4}"/>
+    <hyperlink ref="N14" r:id="rId19" xr:uid="{941C9997-05CE-4145-A7A2-309449ED7B30}"/>
+    <hyperlink ref="N16" r:id="rId20" xr:uid="{FACD302D-1E21-4D5A-BE72-C9AF72A4AC8C}"/>
+    <hyperlink ref="N15" r:id="rId21" xr:uid="{FF26649D-7B4D-4C16-B65D-A1BECC0994EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -1967,13 +1985,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -1991,16 +2009,16 @@
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>10</v>
@@ -2011,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
@@ -2029,7 +2047,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -2039,7 +2057,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>76</v>
@@ -2057,7 +2075,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -2067,7 +2085,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>77</v>
@@ -2085,7 +2103,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -2095,7 +2113,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>78</v>
@@ -2113,7 +2131,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -2123,7 +2141,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>79</v>
@@ -2141,7 +2159,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -2151,7 +2169,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>80</v>
@@ -2169,7 +2187,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -2179,7 +2197,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>81</v>
@@ -2197,7 +2215,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2207,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>82</v>
@@ -2225,7 +2243,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -2235,7 +2253,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>83</v>
@@ -2253,7 +2271,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2263,7 +2281,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>84</v>
@@ -2281,7 +2299,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -2291,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>85</v>
@@ -2309,7 +2327,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -2319,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>86</v>
@@ -2337,7 +2355,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -2347,7 +2365,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>87</v>
@@ -2365,7 +2383,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -2375,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>88</v>
@@ -2393,7 +2411,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -2403,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>89</v>
@@ -2421,7 +2439,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -2431,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>90</v>
@@ -2449,7 +2467,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2459,7 +2477,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>91</v>
@@ -2477,7 +2495,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2487,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>76</v>
@@ -2505,7 +2523,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2515,7 +2533,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
@@ -2533,7 +2551,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -2543,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>93</v>
@@ -2561,7 +2579,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>

--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F19164-8827-4903-B1B2-913408A5F54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF9D0D-A420-44F8-8F89-BEE02E49F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
@@ -436,10 +436,10 @@
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-radiant.png?alt=media&amp;token=75539b65-0aa4-49a4-aa3b-66089fd35992</t>
-  </si>
-  <si>
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-pear.png?alt=media&amp;token=1633a872-33f9-4afe-a869-7ea96957faf1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-radiant.png?alt=media&amp;token=d29eaa3e-bf3e-4bbb-ae32-dee13bba3272</t>
   </si>
 </sst>
 </file>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1524,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>74</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>52</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>74</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>53</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
         <v>52</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>73</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>53</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>52</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>73</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1904,7 +1904,7 @@
         <v>53</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1916,24 +1916,24 @@
     <hyperlink ref="N3" r:id="rId1" xr:uid="{4B06AFB2-9015-47D2-9487-782D00DD716B}"/>
     <hyperlink ref="N4:N9" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72" xr:uid="{1DBFE994-A772-4F2C-8527-73FC14DEF681}"/>
     <hyperlink ref="N12" r:id="rId3" xr:uid="{6B1CC323-2ECA-4A87-BDBA-7749F7824179}"/>
-    <hyperlink ref="N17" r:id="rId4" xr:uid="{D57488B9-06B5-43B1-B171-7A42DEB05143}"/>
-    <hyperlink ref="N18" r:id="rId5" xr:uid="{DC32D6B6-BF95-4B95-B547-D09315E6369E}"/>
-    <hyperlink ref="N19" r:id="rId6" xr:uid="{A35E2F49-A725-4B43-8AF3-DDB3739CC609}"/>
-    <hyperlink ref="N21" r:id="rId7" xr:uid="{DF9FAD68-CED6-4F19-AB9A-E2C8D5326B0F}"/>
-    <hyperlink ref="N20" r:id="rId8" xr:uid="{91C7FA33-B321-487A-8389-5623EFD60F15}"/>
-    <hyperlink ref="N22" r:id="rId9" xr:uid="{99A9EB33-E223-47F1-817A-9483969EAA0A}"/>
-    <hyperlink ref="N4" r:id="rId10" xr:uid="{79248751-C92A-4637-8F9D-3CE8D9171759}"/>
-    <hyperlink ref="N5" r:id="rId11" xr:uid="{28BCBDAC-3EF9-4C1F-BF39-02EADB4B37F9}"/>
-    <hyperlink ref="N7" r:id="rId12" xr:uid="{10A7B3F3-53FB-460A-9BB6-680C25BA562E}"/>
-    <hyperlink ref="N9" r:id="rId13" xr:uid="{E3AAC7A4-6BB0-4821-9796-DC8DF22E8856}"/>
-    <hyperlink ref="N11" r:id="rId14" xr:uid="{1AFF66A9-FAAE-4A9B-AA44-33FA0396D119}"/>
-    <hyperlink ref="N6" r:id="rId15" xr:uid="{B5847082-AB16-4CC2-8FEB-A3E594797AAC}"/>
-    <hyperlink ref="N8" r:id="rId16" xr:uid="{FFEF9E3D-8E28-4B8B-B623-7572D3D10DB6}"/>
-    <hyperlink ref="N10" r:id="rId17" xr:uid="{0406CC87-7CCF-4B39-847A-7D638970830A}"/>
-    <hyperlink ref="N13" r:id="rId18" xr:uid="{F237D6BB-4BDD-4901-ADED-AEE9000B85F4}"/>
-    <hyperlink ref="N14" r:id="rId19" xr:uid="{941C9997-05CE-4145-A7A2-309449ED7B30}"/>
-    <hyperlink ref="N16" r:id="rId20" xr:uid="{FACD302D-1E21-4D5A-BE72-C9AF72A4AC8C}"/>
-    <hyperlink ref="N15" r:id="rId21" xr:uid="{FF26649D-7B4D-4C16-B65D-A1BECC0994EC}"/>
+    <hyperlink ref="N4" r:id="rId4" xr:uid="{79248751-C92A-4637-8F9D-3CE8D9171759}"/>
+    <hyperlink ref="N5" r:id="rId5" xr:uid="{28BCBDAC-3EF9-4C1F-BF39-02EADB4B37F9}"/>
+    <hyperlink ref="N7" r:id="rId6" xr:uid="{10A7B3F3-53FB-460A-9BB6-680C25BA562E}"/>
+    <hyperlink ref="N9" r:id="rId7" xr:uid="{E3AAC7A4-6BB0-4821-9796-DC8DF22E8856}"/>
+    <hyperlink ref="N11" r:id="rId8" xr:uid="{1AFF66A9-FAAE-4A9B-AA44-33FA0396D119}"/>
+    <hyperlink ref="N6" r:id="rId9" xr:uid="{B5847082-AB16-4CC2-8FEB-A3E594797AAC}"/>
+    <hyperlink ref="N8" r:id="rId10" xr:uid="{FFEF9E3D-8E28-4B8B-B623-7572D3D10DB6}"/>
+    <hyperlink ref="N10" r:id="rId11" xr:uid="{0406CC87-7CCF-4B39-847A-7D638970830A}"/>
+    <hyperlink ref="N13" r:id="rId12" xr:uid="{F237D6BB-4BDD-4901-ADED-AEE9000B85F4}"/>
+    <hyperlink ref="N14" r:id="rId13" xr:uid="{941C9997-05CE-4145-A7A2-309449ED7B30}"/>
+    <hyperlink ref="N16" r:id="rId14" xr:uid="{FACD302D-1E21-4D5A-BE72-C9AF72A4AC8C}"/>
+    <hyperlink ref="N15" r:id="rId15" xr:uid="{FF26649D-7B4D-4C16-B65D-A1BECC0994EC}"/>
+    <hyperlink ref="N17" r:id="rId16" xr:uid="{4BC36C45-9095-4CB0-8651-3882C43E8CAE}"/>
+    <hyperlink ref="N18" r:id="rId17" xr:uid="{69516E09-FCFE-452A-9DAE-0EA423493CB1}"/>
+    <hyperlink ref="N19" r:id="rId18" xr:uid="{22207033-0D6F-4AF9-87B3-881B705B2357}"/>
+    <hyperlink ref="N21" r:id="rId19" xr:uid="{52B9C0BE-735C-42E6-94A3-A38988816C3F}"/>
+    <hyperlink ref="N20" r:id="rId20" xr:uid="{67CEE986-D79C-492D-9227-6CCC58F1B008}"/>
+    <hyperlink ref="N22" r:id="rId21" xr:uid="{3F29CA45-7185-48A8-AA19-A83FACD181E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId22"/>

--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFF9D0D-A420-44F8-8F89-BEE02E49F46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124D82D-F8F2-4D0A-B931-E5C29C038483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="158">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -433,13 +433,82 @@
     <t>female</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-pear.png?alt=media&amp;token=1633a872-33f9-4afe-a869-7ea96957faf1</t>
-  </si>
-  <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-radiant.png?alt=media&amp;token=d29eaa3e-bf3e-4bbb-ae32-dee13bba3272</t>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=beae3e3d-13a1-4e10-8f3c-32c2e2b7a4d1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-products%2Fkim-cuong-pear.png?alt=media&amp;token=ddf5fc6c-062c-4407-82b7-3049c5b2c9b1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-products%2Fkim-cuong-radiant.png?alt=media&amp;token=d08da024-4fc3-4726-9732-46bef9903fa8</t>
+  </si>
+  <si>
+    <t>0.6 carat</t>
+  </si>
+  <si>
+    <t>image products</t>
+  </si>
+  <si>
+    <t>image certificate</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-137.png?alt=media&amp;token=68a4ccff-f247-4187-92e2-0a40bda87418</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-905.png?alt=media&amp;token=73de0f96-7776-4602-a47f-81e4ac8d858f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-589.png?alt=media&amp;token=b0c7aea0-744a-4f0d-8c0d-9498377ffe05</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-211.png?alt=media&amp;token=cb39ecd2-214d-4dcd-94f7-957c8a8e6304</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-828.png?alt=media&amp;token=2d5f9ac8-28f3-4f4f-9b80-5188fc76fbfd</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-326.png?alt=media&amp;token=13c6fa72-5ef3-497e-a8a4-04592a3ae376</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-403.png?alt=media&amp;token=d06a5e8e-d217-4ee7-8792-70a3bf83a65d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-216.png?alt=media&amp;token=f818aedf-edca-4d9c-a2cc-790b03913076</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Faround%2FCID-858.png?alt=media&amp;token=84684ef2-4ebb-4642-92e4-bd260a404a4d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fpear%2FCID-565.png?alt=media&amp;token=6b864d98-0cc8-45a1-bb9b-305c1737e6fc</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fpear%2FCID-684.png?alt=media&amp;token=9a433829-9560-4886-9cbf-1236e313248b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fpear%2FCID-311.png?alt=media&amp;token=535c8611-313c-49bf-bea7-72d6b8b82c77</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fpear%2FCID-869.png?alt=media&amp;token=7ace4c8a-7128-4700-bc0b-29850b20edeb</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fpear%2FCID-841.png?alt=media&amp;token=b9cc1e2a-eb7d-42b8-8621-882f43681c4b</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-463.png?alt=media&amp;token=3327b653-4b37-4301-8ff4-1c2ef9aae477</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-749.png?alt=media&amp;token=fdcb4eca-57db-4332-bfdd-1ebb377f0e46</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-443.png?alt=media&amp;token=7f9a977f-5794-4a56-b0dd-e18df5778285</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-137.png?alt=media&amp;token=b836f1e0-9887-4a2d-aa3d-1c4b5989bd55</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-428.png?alt=media&amp;token=1815ceba-f4ef-44f6-81b1-15afb566ba5f</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-635.png?alt=media&amp;token=63903a91-20a1-480e-9e47-78e6cdc4b6fa</t>
   </si>
 </sst>
 </file>
@@ -493,7 +562,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,7 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,53 +783,89 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,28 +1199,29 @@
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="80.140625" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1131,780 +1249,883 @@
       <c r="I2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="1" t="s">
+      <c r="D19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="13" t="s">
+      <c r="I19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L19" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="1" t="s">
+      <c r="N20" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="14" t="s">
+      <c r="I21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="N22" s="23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>134</v>
+      <c r="O22" s="30" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1913,30 +2134,29 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N3" r:id="rId1" xr:uid="{4B06AFB2-9015-47D2-9487-782D00DD716B}"/>
-    <hyperlink ref="N4:N9" r:id="rId2" display="https://firebasestorage.googleapis.com/v0/b/the-diamond-store-ef868.appspot.com/o/img-products%2Fkim-cuong-around.png?alt=media&amp;token=88a77364-e843-4c76-baf6-39514f094e72" xr:uid="{1DBFE994-A772-4F2C-8527-73FC14DEF681}"/>
-    <hyperlink ref="N12" r:id="rId3" xr:uid="{6B1CC323-2ECA-4A87-BDBA-7749F7824179}"/>
-    <hyperlink ref="N4" r:id="rId4" xr:uid="{79248751-C92A-4637-8F9D-3CE8D9171759}"/>
-    <hyperlink ref="N5" r:id="rId5" xr:uid="{28BCBDAC-3EF9-4C1F-BF39-02EADB4B37F9}"/>
-    <hyperlink ref="N7" r:id="rId6" xr:uid="{10A7B3F3-53FB-460A-9BB6-680C25BA562E}"/>
-    <hyperlink ref="N9" r:id="rId7" xr:uid="{E3AAC7A4-6BB0-4821-9796-DC8DF22E8856}"/>
-    <hyperlink ref="N11" r:id="rId8" xr:uid="{1AFF66A9-FAAE-4A9B-AA44-33FA0396D119}"/>
-    <hyperlink ref="N6" r:id="rId9" xr:uid="{B5847082-AB16-4CC2-8FEB-A3E594797AAC}"/>
-    <hyperlink ref="N8" r:id="rId10" xr:uid="{FFEF9E3D-8E28-4B8B-B623-7572D3D10DB6}"/>
-    <hyperlink ref="N10" r:id="rId11" xr:uid="{0406CC87-7CCF-4B39-847A-7D638970830A}"/>
-    <hyperlink ref="N13" r:id="rId12" xr:uid="{F237D6BB-4BDD-4901-ADED-AEE9000B85F4}"/>
-    <hyperlink ref="N14" r:id="rId13" xr:uid="{941C9997-05CE-4145-A7A2-309449ED7B30}"/>
-    <hyperlink ref="N16" r:id="rId14" xr:uid="{FACD302D-1E21-4D5A-BE72-C9AF72A4AC8C}"/>
-    <hyperlink ref="N15" r:id="rId15" xr:uid="{FF26649D-7B4D-4C16-B65D-A1BECC0994EC}"/>
-    <hyperlink ref="N17" r:id="rId16" xr:uid="{4BC36C45-9095-4CB0-8651-3882C43E8CAE}"/>
-    <hyperlink ref="N18" r:id="rId17" xr:uid="{69516E09-FCFE-452A-9DAE-0EA423493CB1}"/>
-    <hyperlink ref="N19" r:id="rId18" xr:uid="{22207033-0D6F-4AF9-87B3-881B705B2357}"/>
-    <hyperlink ref="N21" r:id="rId19" xr:uid="{52B9C0BE-735C-42E6-94A3-A38988816C3F}"/>
-    <hyperlink ref="N20" r:id="rId20" xr:uid="{67CEE986-D79C-492D-9227-6CCC58F1B008}"/>
-    <hyperlink ref="N22" r:id="rId21" xr:uid="{3F29CA45-7185-48A8-AA19-A83FACD181E2}"/>
+    <hyperlink ref="N3" r:id="rId1" xr:uid="{171297B6-7631-4C1F-A602-9BD28DE095CE}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{7497CFA0-9D4A-4BDD-9F22-BA885E84D885}"/>
+    <hyperlink ref="N5" r:id="rId3" xr:uid="{9B0C3E1F-7F6C-425C-AD4C-F42AA26913A8}"/>
+    <hyperlink ref="N7" r:id="rId4" xr:uid="{F80B2BDF-D097-47BF-AE43-1D5FC2F5577E}"/>
+    <hyperlink ref="N9" r:id="rId5" xr:uid="{4D69DD4B-8B09-4074-9AC0-355266E42329}"/>
+    <hyperlink ref="N11" r:id="rId6" xr:uid="{24D220BD-DC09-4671-B7A7-2A86BE7A18FB}"/>
+    <hyperlink ref="N6" r:id="rId7" xr:uid="{174AB1B0-E871-48C6-990F-DDA13C3BFECA}"/>
+    <hyperlink ref="N8" r:id="rId8" xr:uid="{038D20F1-A6AC-4033-93EF-AB751CA397B6}"/>
+    <hyperlink ref="N10" r:id="rId9" xr:uid="{ED33D8D5-068F-4BA8-B505-C113D37E7BA9}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{47A6536F-2DF7-4EA4-801A-6D3FA078E1DB}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{9ABD4C87-16C6-4C63-ACF7-930B89E9613D}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{CE1E9359-2334-46F4-BAB5-118BAD081E13}"/>
+    <hyperlink ref="N16" r:id="rId13" xr:uid="{C5736B1E-B12C-4A2B-8DAA-459A302C4C4D}"/>
+    <hyperlink ref="N15" r:id="rId14" xr:uid="{713C682B-0C49-49C5-85FD-8E81F74B0375}"/>
+    <hyperlink ref="N17" r:id="rId15" xr:uid="{F3A7C04B-7E06-4EFC-832B-E54CFA3DDFF6}"/>
+    <hyperlink ref="N18" r:id="rId16" xr:uid="{067252D4-AC04-4522-9F06-4E6F167B8F94}"/>
+    <hyperlink ref="N19" r:id="rId17" xr:uid="{E3A5D19A-283E-4207-BBC0-F75CB501D37B}"/>
+    <hyperlink ref="N21" r:id="rId18" xr:uid="{229167A5-10BF-401B-A6F5-8592E5720BE8}"/>
+    <hyperlink ref="N20" r:id="rId19" xr:uid="{C3435757-923E-4871-986E-9ADC9E0D9431}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{FEB815C0-C775-4E4E-B30C-5EAEBDC04178}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1963,22 +2183,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">

--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124D82D-F8F2-4D0A-B931-E5C29C038483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB08687-4A3F-4E14-B3FF-62C6499D80A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="190">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -388,30 +388,6 @@
     <t>JID-562</t>
   </si>
   <si>
-    <t>JID-611</t>
-  </si>
-  <si>
-    <t>JID-852</t>
-  </si>
-  <si>
-    <t>JID-266</t>
-  </si>
-  <si>
-    <t>JID-824</t>
-  </si>
-  <si>
-    <t>JID-204</t>
-  </si>
-  <si>
-    <t>JID-810</t>
-  </si>
-  <si>
-    <t>JID-438</t>
-  </si>
-  <si>
-    <t>JID-917</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -502,20 +478,163 @@
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-443.png?alt=media&amp;token=7f9a977f-5794-4a56-b0dd-e18df5778285</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-137.png?alt=media&amp;token=b836f1e0-9887-4a2d-aa3d-1c4b5989bd55</t>
-  </si>
-  <si>
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-428.png?alt=media&amp;token=1815ceba-f4ef-44f6-81b1-15afb566ba5f</t>
   </si>
   <si>
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-635.png?alt=media&amp;token=63903a91-20a1-480e-9e47-78e6cdc4b6fa</t>
+  </si>
+  <si>
+    <t>GIA</t>
+  </si>
+  <si>
+    <t>giá KC * 10% (thuế)</t>
+  </si>
+  <si>
+    <t>image warrantity</t>
+  </si>
+  <si>
+    <t>KCV-133</t>
+  </si>
+  <si>
+    <t>WID-133</t>
+  </si>
+  <si>
+    <t>CID-133</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-certificates%2Fradiant%2FCID-133.png?alt=media&amp;token=ea295189-b847-474b-8114-54f9b4ad7947</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-133.png?alt=media&amp;token=d264aedf-41be-4430-b976-0d383d7bf9b0</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-137.png?alt=media&amp;token=3412810c-b540-460f-8655-d7fc5349421d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-589.png?alt=media&amp;token=4d10c449-b06e-4ceb-9e83-51c09bbb6746</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-211.png?alt=media&amp;token=fea709a7-a4af-4069-b879-e3484d6c9843</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-828.png?alt=media&amp;token=66a05e56-ab5f-4cef-97a0-f18214c85552</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-326.png?alt=media&amp;token=9dab945d-c4aa-432e-a2e1-cc912c71e734</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-403.png?alt=media&amp;token=03b673b0-0b5f-4b83-a73a-b24e38e8dc17</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-216.png?alt=media&amp;token=ce0ad8c1-f33a-471b-82cb-8d7b47242767</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-858.png?alt=media&amp;token=e8c4ce93-c947-4d37-9cbe-9fae471b6758</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-565.png?alt=media&amp;token=47f80b0e-b334-487f-a5cc-f980cb2635f8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-684.png?alt=media&amp;token=8391f57f-cada-4a82-871d-eb5be22af6ab</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-311.png?alt=media&amp;token=b9290103-6558-4a67-b7a7-20f537b3b757</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-869.png?alt=media&amp;token=f2ef9a85-f4d8-498a-9fb2-92d0539f561a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-841.png?alt=media&amp;token=5dc10955-8ccd-430d-8b19-109dddf29d46</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-463.png?alt=media&amp;token=b8348d4b-3b71-4b7d-a480-4781f29caf59</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-749.png?alt=media&amp;token=7331d8e7-5c6c-4f76-aa12-90b1f96783a8</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-443.png?alt=media&amp;token=d739c5b4-0d35-42fe-b76a-e3dfe41a158d</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-428.png?alt=media&amp;token=ea871ce7-83aa-41b2-b788-d7a287588b7c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-635.png?alt=media&amp;token=746eb092-d33c-4a01-a9c4-f81b84e2c457</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">giá vàng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trắng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * 20% (tiền công)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nam vàng trắng 10K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nam vàng trắng 18K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nam vàng trắng 24K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nam vàng trắng 14K </t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nam-1.png?alt=media&amp;token=3b4ca2b6-c0ef-499b-83ff-2727f350e47e</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nam-2.png?alt=media&amp;token=365df945-2b7a-4502-9bbd-3a9e81c16365</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nam-3.png?alt=media&amp;token=6a9b5690-96e5-4741-846a-418a35a7e2c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nữ vàng trắng 24K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nữ vàng trắng 14K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nữ vàng trắng 18K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vỏ nhẫn kim cương nữ vàng trắng 10K </t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-1.png?alt=media&amp;token=fce3cde4-c7f3-4f74-b8de-9328ff8fbfc1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-2.png?alt=media&amp;token=3a057741-e055-44e7-8585-1186f20b1c05</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-3.png?alt=media&amp;token=7bedfc73-abc0-459d-8c4f-a7759c92e202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +680,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -775,7 +902,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -855,16 +982,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1182,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,28 +1339,29 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="29.85546875" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="30" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="32"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1262,13 +1402,16 @@
         <v>9</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1284,8 +1427,12 @@
       <c r="E3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="F3" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H3" s="8" t="s">
         <v>103</v>
       </c>
@@ -1293,7 +1440,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>69</v>
@@ -1305,13 +1452,16 @@
         <v>52</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -1327,8 +1477,12 @@
       <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H4" s="8" t="s">
         <v>103</v>
       </c>
@@ -1336,7 +1490,7 @@
         <v>57</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>70</v>
@@ -1348,13 +1502,16 @@
         <v>53</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -1370,8 +1527,12 @@
       <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="8" t="s">
         <v>103</v>
       </c>
@@ -1379,7 +1540,7 @@
         <v>57</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>71</v>
@@ -1391,13 +1552,16 @@
         <v>73</v>
       </c>
       <c r="N5" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O5" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="P5" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1413,8 +1577,12 @@
       <c r="E6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H6" s="8" t="s">
         <v>103</v>
       </c>
@@ -1422,7 +1590,7 @@
         <v>57</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>72</v>
@@ -1434,13 +1602,16 @@
         <v>52</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1456,8 +1627,12 @@
       <c r="E7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>103</v>
       </c>
@@ -1465,7 +1640,7 @@
         <v>57</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>69</v>
@@ -1477,13 +1652,16 @@
         <v>53</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -1499,8 +1677,12 @@
       <c r="E8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>103</v>
       </c>
@@ -1508,7 +1690,7 @@
         <v>57</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>70</v>
@@ -1520,13 +1702,16 @@
         <v>74</v>
       </c>
       <c r="N8" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -1542,8 +1727,12 @@
       <c r="E9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="F9" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>103</v>
       </c>
@@ -1551,7 +1740,7 @@
         <v>57</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>71</v>
@@ -1563,13 +1752,16 @@
         <v>52</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -1585,8 +1777,12 @@
       <c r="E10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H10" s="8" t="s">
         <v>103</v>
       </c>
@@ -1594,7 +1790,7 @@
         <v>57</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>72</v>
@@ -1606,13 +1802,16 @@
         <v>53</v>
       </c>
       <c r="N10" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -1628,8 +1827,12 @@
       <c r="E11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="F11" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>103</v>
       </c>
@@ -1637,7 +1840,7 @@
         <v>57</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>69</v>
@@ -1649,13 +1852,16 @@
         <v>73</v>
       </c>
       <c r="N11" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -1671,8 +1877,12 @@
       <c r="E12" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="F12" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H12" s="14" t="s">
         <v>103</v>
       </c>
@@ -1680,7 +1890,7 @@
         <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>70</v>
@@ -1692,13 +1902,16 @@
         <v>52</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -1714,8 +1927,12 @@
       <c r="E13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="F13" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H13" s="14" t="s">
         <v>103</v>
       </c>
@@ -1723,7 +1940,7 @@
         <v>56</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>71</v>
@@ -1735,13 +1952,16 @@
         <v>74</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -1757,8 +1977,12 @@
       <c r="E14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="F14" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H14" s="14" t="s">
         <v>103</v>
       </c>
@@ -1766,7 +1990,7 @@
         <v>56</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>72</v>
@@ -1778,13 +2002,16 @@
         <v>52</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
@@ -1800,8 +2027,12 @@
       <c r="E15" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="F15" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H15" s="14" t="s">
         <v>103</v>
       </c>
@@ -1809,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>69</v>
@@ -1821,13 +2052,16 @@
         <v>74</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O15" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>14</v>
       </c>
@@ -1843,8 +2077,12 @@
       <c r="E16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="F16" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H16" s="14" t="s">
         <v>103</v>
       </c>
@@ -1852,7 +2090,7 @@
         <v>56</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>70</v>
@@ -1864,13 +2102,16 @@
         <v>53</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="O16" s="30" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="O16" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>15</v>
       </c>
@@ -1886,8 +2127,12 @@
       <c r="E17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="F17" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H17" s="19" t="s">
         <v>103</v>
       </c>
@@ -1895,7 +2140,7 @@
         <v>58</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K17" s="20" t="s">
         <v>71</v>
@@ -1907,13 +2152,16 @@
         <v>52</v>
       </c>
       <c r="N17" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O17" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>16</v>
       </c>
@@ -1929,8 +2177,12 @@
       <c r="E18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="F18" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H18" s="19" t="s">
         <v>103</v>
       </c>
@@ -1938,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K18" s="20" t="s">
         <v>72</v>
@@ -1950,13 +2202,16 @@
         <v>73</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="O18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>17</v>
       </c>
@@ -1972,8 +2227,12 @@
       <c r="E19" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="F19" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>103</v>
       </c>
@@ -1981,7 +2240,7 @@
         <v>58</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>69</v>
@@ -1993,30 +2252,37 @@
         <v>53</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O19" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="O19" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="P19" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>18</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>15</v>
+        <v>153</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+        <v>154</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>103</v>
       </c>
@@ -2024,7 +2290,7 @@
         <v>58</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K20" s="20" t="s">
         <v>70</v>
@@ -2036,13 +2302,16 @@
         <v>52</v>
       </c>
       <c r="N20" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O20" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="O20" s="29" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="P20" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>19</v>
       </c>
@@ -2058,8 +2327,12 @@
       <c r="E21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="F21" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>103</v>
       </c>
@@ -2067,7 +2340,7 @@
         <v>58</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K21" s="20" t="s">
         <v>71</v>
@@ -2079,13 +2352,16 @@
         <v>73</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="P21" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>20</v>
       </c>
@@ -2101,8 +2377,12 @@
       <c r="E22" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="F22" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>149</v>
+      </c>
       <c r="H22" s="19" t="s">
         <v>103</v>
       </c>
@@ -2110,7 +2390,7 @@
         <v>58</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K22" s="24" t="s">
         <v>72</v>
@@ -2122,10 +2402,13 @@
         <v>53</v>
       </c>
       <c r="N22" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>157</v>
+        <v>126</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2154,18 +2437,22 @@
     <hyperlink ref="N21" r:id="rId18" xr:uid="{229167A5-10BF-401B-A6F5-8592E5720BE8}"/>
     <hyperlink ref="N20" r:id="rId19" xr:uid="{C3435757-923E-4871-986E-9ADC9E0D9431}"/>
     <hyperlink ref="N22" r:id="rId20" xr:uid="{FEB815C0-C775-4E4E-B30C-5EAEBDC04178}"/>
+    <hyperlink ref="O3" r:id="rId21" xr:uid="{60BFFD91-32CB-4CF6-A749-24AE8F052C03}"/>
+    <hyperlink ref="O21" r:id="rId22" xr:uid="{6ACB395A-F30B-405B-974B-4808C56385CF}"/>
+    <hyperlink ref="O20" r:id="rId23" xr:uid="{616F7E93-8932-439F-9B11-881858C04101}"/>
+    <hyperlink ref="P3" r:id="rId24" xr:uid="{9C164D6A-6797-4A1D-91CF-C98AA5FFA43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42A2C7-B481-431C-9009-93DC686AB606}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2175,30 +2462,31 @@
     <col min="4" max="4" width="36.5703125" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2211,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -2229,22 +2517,22 @@
         <v>5</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2254,7 +2542,9 @@
       <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2262,17 +2552,21 @@
         <v>33</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2282,7 +2576,9 @@
       <c r="C4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
@@ -2290,17 +2586,21 @@
         <v>34</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2310,7 +2610,9 @@
       <c r="C5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2318,17 +2620,21 @@
         <v>35</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2338,7 +2644,9 @@
       <c r="C6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2346,17 +2654,21 @@
         <v>36</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2366,7 +2678,9 @@
       <c r="C7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2374,17 +2688,21 @@
         <v>37</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="34" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2394,7 +2712,9 @@
       <c r="C8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2402,17 +2722,21 @@
         <v>38</v>
       </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2422,7 +2746,9 @@
       <c r="C9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2430,17 +2756,21 @@
         <v>39</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2450,7 +2780,9 @@
       <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2458,17 +2790,21 @@
         <v>40</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2478,7 +2814,9 @@
       <c r="C11" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2486,17 +2824,21 @@
         <v>41</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2506,7 +2848,9 @@
       <c r="C12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2514,17 +2858,21 @@
         <v>42</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2534,7 +2882,9 @@
       <c r="C13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2542,17 +2892,21 @@
         <v>43</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2562,7 +2916,9 @@
       <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
@@ -2570,245 +2926,40 @@
         <v>44</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="31" t="s">
+        <v>175</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N14" s="34" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1" xr:uid="{FD24946F-57EB-4E64-AFD6-7AC173F948E6}"/>
+    <hyperlink ref="N4" r:id="rId2" xr:uid="{92B72B20-FCB7-4FF6-A4C1-90406DE6CF16}"/>
+    <hyperlink ref="N3" r:id="rId3" xr:uid="{178FE668-25B0-405F-BD1D-30F3F2D88535}"/>
+    <hyperlink ref="N7" r:id="rId4" xr:uid="{07978225-00D6-420E-9EF7-16B8301683FD}"/>
+    <hyperlink ref="N6" r:id="rId5" xr:uid="{30FDB71F-74D1-4051-A2BD-2EA663FFCE0E}"/>
+    <hyperlink ref="N8" r:id="rId6" xr:uid="{B8B13C79-489F-4349-8A6F-25E0B812AFA6}"/>
+    <hyperlink ref="N9" r:id="rId7" xr:uid="{327E32B3-6727-491D-9B84-C7C803ACF956}"/>
+    <hyperlink ref="N10" r:id="rId8" xr:uid="{C97C89AB-50B1-4375-BACF-EDF48950324A}"/>
+    <hyperlink ref="N11" r:id="rId9" xr:uid="{1B5378EA-6948-4967-BACC-C42A27F4F9DC}"/>
+    <hyperlink ref="N12" r:id="rId10" xr:uid="{7559F80D-B9E6-4990-B56F-60F5509E3289}"/>
+    <hyperlink ref="N13" r:id="rId11" xr:uid="{8043267A-AC25-4719-95BE-76E10CD8BCAF}"/>
+    <hyperlink ref="N14" r:id="rId12" xr:uid="{A6E2556F-8365-4E83-BFA4-34864ED068B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Git\SWP391-Diamond-Shop\Front-End\elements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB08687-4A3F-4E14-B3FF-62C6499D80A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F2998-FA32-4DE9-B0F1-EE70B7AE39D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="191">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -628,6 +628,9 @@
   </si>
   <si>
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-3.png?alt=media&amp;token=7bedfc73-abc0-459d-8c4f-a7759c92e202</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-905.png?alt=media&amp;token=9764359e-7a3f-4638-a509-416503f96e45</t>
   </si>
 </sst>
 </file>
@@ -997,14 +1000,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1323,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1344,22 +1347,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1458,7 +1461,7 @@
         <v>131</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2440,10 +2443,9 @@
     <hyperlink ref="O3" r:id="rId21" xr:uid="{60BFFD91-32CB-4CF6-A749-24AE8F052C03}"/>
     <hyperlink ref="O21" r:id="rId22" xr:uid="{6ACB395A-F30B-405B-974B-4808C56385CF}"/>
     <hyperlink ref="O20" r:id="rId23" xr:uid="{616F7E93-8932-439F-9B11-881858C04101}"/>
-    <hyperlink ref="P3" r:id="rId24" xr:uid="{9C164D6A-6797-4A1D-91CF-C98AA5FFA43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2471,22 +2473,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2562,7 +2564,7 @@
         <v>122</v>
       </c>
       <c r="M3" s="1"/>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="32" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2596,7 +2598,7 @@
         <v>122</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="34" t="s">
+      <c r="N4" s="32" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2630,7 +2632,7 @@
         <v>122</v>
       </c>
       <c r="M5" s="1"/>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="32" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2664,7 +2666,7 @@
         <v>122</v>
       </c>
       <c r="M6" s="1"/>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="32" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2698,7 +2700,7 @@
         <v>122</v>
       </c>
       <c r="M7" s="1"/>
-      <c r="N7" s="34" t="s">
+      <c r="N7" s="32" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2732,7 +2734,7 @@
         <v>122</v>
       </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="32" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2766,7 +2768,7 @@
         <v>123</v>
       </c>
       <c r="M9" s="1"/>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2800,7 +2802,7 @@
         <v>123</v>
       </c>
       <c r="M10" s="1"/>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="32" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2834,7 +2836,7 @@
         <v>123</v>
       </c>
       <c r="M11" s="1"/>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="32" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2868,7 +2870,7 @@
         <v>123</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="34" t="s">
+      <c r="N12" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2902,7 +2904,7 @@
         <v>123</v>
       </c>
       <c r="M13" s="1"/>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="32" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2936,7 +2938,7 @@
         <v>123</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="32" t="s">
         <v>189</v>
       </c>
     </row>

--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Git\SWP391-Diamond-Shop\Front-End\elements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F2998-FA32-4DE9-B0F1-EE70B7AE39D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F790B231-CADC-427E-B2CE-3355C7347353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim Cương" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="211">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -630,14 +630,74 @@
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-3.png?alt=media&amp;token=7bedfc73-abc0-459d-8c4f-a7759c92e202</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-905.png?alt=media&amp;token=9764359e-7a3f-4638-a509-416503f96e45</t>
+    <t>JID-338</t>
+  </si>
+  <si>
+    <t>JID-114</t>
+  </si>
+  <si>
+    <t>JID-110</t>
+  </si>
+  <si>
+    <t>JID-334</t>
+  </si>
+  <si>
+    <t>JID-558</t>
+  </si>
+  <si>
+    <t>JID-782</t>
+  </si>
+  <si>
+    <t>JID-1006</t>
+  </si>
+  <si>
+    <t>JID-1230</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nam-4.png?alt=media&amp;token=f68f317a-ff8e-4274-9a02-44f084a3df60</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-5.png?alt=media&amp;token=66e8e122-4eac-495c-93e7-bf8049ef4fa9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-4.png?alt=media&amp;token=c3f239a4-c5d8-43d0-8760-9ad39d557f1c</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>warrantityImage</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-338.png?alt=media&amp;token=2bb15822-a895-4cbf-90a5-30532b0cb741</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-114.png?alt=media&amp;token=e601b7de-53fb-4dbf-8a8e-f0a56d118f38</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-110.png?alt=media&amp;token=b59a4275-84b9-4748-9d52-53b984e3e882</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-334.png?alt=media&amp;token=c3d66016-86ff-48bd-867a-1e49bb1f8312</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-558.png?alt=media&amp;token=1a254918-97f0-4d2d-8148-0de5402301e1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-782.png?alt=media&amp;token=ac7f8c15-617d-4a55-91eb-07abdeb0881a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-1006.png?alt=media&amp;token=1d249753-99f9-4e29-bc1f-670420f1a84c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-1230.png?alt=media&amp;token=40c5fe21-008e-485e-9e06-b021f684964f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +751,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +784,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -900,12 +972,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,8 +1093,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1326,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1461,7 +1552,7 @@
         <v>131</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,18 +2534,19 @@
     <hyperlink ref="O3" r:id="rId21" xr:uid="{60BFFD91-32CB-4CF6-A749-24AE8F052C03}"/>
     <hyperlink ref="O21" r:id="rId22" xr:uid="{6ACB395A-F30B-405B-974B-4808C56385CF}"/>
     <hyperlink ref="O20" r:id="rId23" xr:uid="{616F7E93-8932-439F-9B11-881858C04101}"/>
+    <hyperlink ref="P3" r:id="rId24" xr:uid="{9C164D6A-6797-4A1D-91CF-C98AA5FFA43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42A2C7-B481-431C-9009-93DC686AB606}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,9 +2562,10 @@
     <col min="11" max="11" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="62.140625" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -2490,7 +2583,7 @@
       <c r="M1" s="33"/>
       <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2533,8 +2626,11 @@
       <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2568,7 +2664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2602,7 +2698,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2636,7 +2732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2670,7 +2766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2704,7 +2800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2738,7 +2834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2772,7 +2868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2806,7 +2902,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2840,7 +2936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2874,7 +2970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2908,7 +3004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2941,6 +3037,208 @@
       <c r="N14" s="32" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="36"/>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="36"/>
+    </row>
+    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="36"/>
+    </row>
+    <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2960,8 +3258,24 @@
     <hyperlink ref="N12" r:id="rId10" xr:uid="{7559F80D-B9E6-4990-B56F-60F5509E3289}"/>
     <hyperlink ref="N13" r:id="rId11" xr:uid="{8043267A-AC25-4719-95BE-76E10CD8BCAF}"/>
     <hyperlink ref="N14" r:id="rId12" xr:uid="{A6E2556F-8365-4E83-BFA4-34864ED068B8}"/>
+    <hyperlink ref="N17" r:id="rId13" xr:uid="{984547A1-FA6D-4F93-98C3-D8569C6010E9}"/>
+    <hyperlink ref="N18" r:id="rId14" xr:uid="{6F517AA4-4662-4B86-B554-2BBB4E96187F}"/>
+    <hyperlink ref="N20" r:id="rId15" xr:uid="{4B157582-0703-4266-9E38-C069459F14C2}"/>
+    <hyperlink ref="N16" r:id="rId16" xr:uid="{FB290C3C-A7F4-4EA1-B523-9EAA69F8C177}"/>
+    <hyperlink ref="N21" r:id="rId17" xr:uid="{7CF4D2D5-EBC4-42E3-A6E0-565830B4664E}"/>
+    <hyperlink ref="N15" r:id="rId18" xr:uid="{ECDF3410-1880-4607-A8FC-D7C3F66CA19F}"/>
+    <hyperlink ref="N19" r:id="rId19" xr:uid="{1A49B760-B938-4906-9BD1-273E39EE2935}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{C0B0702D-36C5-4BCA-8F8A-02912AA64261}"/>
+    <hyperlink ref="O15" r:id="rId21" xr:uid="{ED9ABA1F-D9FB-4BE9-877E-D4EBE52032C5}"/>
+    <hyperlink ref="O16" r:id="rId22" xr:uid="{37EF3BFB-AF45-4724-BCE1-14A4B3CB7EEA}"/>
+    <hyperlink ref="O17" r:id="rId23" xr:uid="{5204EB9A-201E-417A-8DFC-65C07B943F2B}"/>
+    <hyperlink ref="O18" r:id="rId24" xr:uid="{D363A2B4-043F-4377-84F8-2F04F01A8667}"/>
+    <hyperlink ref="O19" r:id="rId25" xr:uid="{3FF92DB1-5617-4C07-9FEF-2C95D1E0A85C}"/>
+    <hyperlink ref="O21" r:id="rId26" xr:uid="{99A3A749-C42B-40BE-ADA8-342078D76554}"/>
+    <hyperlink ref="O22" r:id="rId27" xr:uid="{0F024A01-23D1-40AA-975B-8CCF154AD573}"/>
+    <hyperlink ref="O20" r:id="rId28" xr:uid="{2B33E9C3-25D2-431F-A387-7EAAFEB06B1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/Front-End/elements/list product dinamond.xlsx
+++ b/Front-End/elements/list product dinamond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Git\SWP391-Diamond-Shop\Front-End\elements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TỔNG\FPT\CN7\SWP391\Tài nguyên\UI\Sản phẩm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0F2998-FA32-4DE9-B0F1-EE70B7AE39D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4587B927-DF69-4C89-91D8-AC0947BC1A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6AE33BB8-7C73-46C5-A031-BCF2B3E0C836}"/>
   </bookViews>
   <sheets>
     <sheet name="Kim Cương" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="211">
   <si>
     <t xml:space="preserve">Kim Cương </t>
   </si>
@@ -630,14 +630,74 @@
     <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-3.png?alt=media&amp;token=7bedfc73-abc0-459d-8c4f-a7759c92e202</t>
   </si>
   <si>
-    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2FWID-905.png?alt=media&amp;token=9764359e-7a3f-4638-a509-416503f96e45</t>
+    <t>JID-338</t>
+  </si>
+  <si>
+    <t>JID-114</t>
+  </si>
+  <si>
+    <t>JID-110</t>
+  </si>
+  <si>
+    <t>JID-334</t>
+  </si>
+  <si>
+    <t>JID-558</t>
+  </si>
+  <si>
+    <t>JID-782</t>
+  </si>
+  <si>
+    <t>JID-1006</t>
+  </si>
+  <si>
+    <t>JID-1230</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nam-4.png?alt=media&amp;token=f68f317a-ff8e-4274-9a02-44f084a3df60</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-5.png?alt=media&amp;token=66e8e122-4eac-495c-93e7-bf8049ef4fa9</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-jewelry%2Fnhan-vang-trang-nu-4.png?alt=media&amp;token=c3f239a4-c5d8-43d0-8760-9ad39d557f1c</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>warrantityImage</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-338.png?alt=media&amp;token=2bb15822-a895-4cbf-90a5-30532b0cb741</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-114.png?alt=media&amp;token=e601b7de-53fb-4dbf-8a8e-f0a56d118f38</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-110.png?alt=media&amp;token=b59a4275-84b9-4748-9d52-53b984e3e882</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-334.png?alt=media&amp;token=c3d66016-86ff-48bd-867a-1e49bb1f8312</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-558.png?alt=media&amp;token=1a254918-97f0-4d2d-8148-0de5402301e1</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-782.png?alt=media&amp;token=ac7f8c15-617d-4a55-91eb-07abdeb0881a</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-1006.png?alt=media&amp;token=1d249753-99f9-4e29-bc1f-670420f1a84c</t>
+  </si>
+  <si>
+    <t>https://firebasestorage.googleapis.com/v0/b/the-diamond-store-423602.appspot.com/o/img-warrantity%2Fimg-warrantity-jewelryID%2FJID-1230.png?alt=media&amp;token=40c5fe21-008e-485e-9e06-b021f684964f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -691,8 +751,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,8 +784,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -900,12 +972,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,6 +1087,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1010,7 +1100,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1326,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0E00CA-A81C-41D9-8D13-C4714400A786}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,22 +1438,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="35"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1461,7 +1552,7 @@
         <v>131</v>
       </c>
       <c r="P3" s="29" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2443,18 +2534,19 @@
     <hyperlink ref="O3" r:id="rId21" xr:uid="{60BFFD91-32CB-4CF6-A749-24AE8F052C03}"/>
     <hyperlink ref="O21" r:id="rId22" xr:uid="{6ACB395A-F30B-405B-974B-4808C56385CF}"/>
     <hyperlink ref="O20" r:id="rId23" xr:uid="{616F7E93-8932-439F-9B11-881858C04101}"/>
+    <hyperlink ref="P3" r:id="rId24" xr:uid="{9C164D6A-6797-4A1D-91CF-C98AA5FFA43D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E42A2C7-B481-431C-9009-93DC686AB606}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,27 +2562,28 @@
     <col min="11" max="11" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
     <col min="14" max="14" width="62.140625" customWidth="1"/>
+    <col min="15" max="15" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -2533,8 +2626,11 @@
       <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2568,7 +2664,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2602,7 +2698,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2636,7 +2732,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2670,7 +2766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2704,7 +2800,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2738,7 +2834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2772,7 +2868,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2806,7 +2902,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2840,7 +2936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2874,7 +2970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2908,7 +3004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2941,6 +3037,208 @@
       <c r="N14" s="32" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="15" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="P15" s="34" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="P16" s="34"/>
+    </row>
+    <row r="17" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="34"/>
+    </row>
+    <row r="18" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O18" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="P18" s="34"/>
+    </row>
+    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="P19" s="34"/>
+    </row>
+    <row r="20" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="P20" s="34"/>
+    </row>
+    <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="P21" s="34"/>
+    </row>
+    <row r="22" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="O22" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P22" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2960,8 +3258,24 @@
     <hyperlink ref="N12" r:id="rId10" xr:uid="{7559F80D-B9E6-4990-B56F-60F5509E3289}"/>
     <hyperlink ref="N13" r:id="rId11" xr:uid="{8043267A-AC25-4719-95BE-76E10CD8BCAF}"/>
     <hyperlink ref="N14" r:id="rId12" xr:uid="{A6E2556F-8365-4E83-BFA4-34864ED068B8}"/>
+    <hyperlink ref="N17" r:id="rId13" xr:uid="{984547A1-FA6D-4F93-98C3-D8569C6010E9}"/>
+    <hyperlink ref="N18" r:id="rId14" xr:uid="{6F517AA4-4662-4B86-B554-2BBB4E96187F}"/>
+    <hyperlink ref="N20" r:id="rId15" xr:uid="{4B157582-0703-4266-9E38-C069459F14C2}"/>
+    <hyperlink ref="N16" r:id="rId16" xr:uid="{FB290C3C-A7F4-4EA1-B523-9EAA69F8C177}"/>
+    <hyperlink ref="N21" r:id="rId17" xr:uid="{7CF4D2D5-EBC4-42E3-A6E0-565830B4664E}"/>
+    <hyperlink ref="N15" r:id="rId18" xr:uid="{ECDF3410-1880-4607-A8FC-D7C3F66CA19F}"/>
+    <hyperlink ref="N19" r:id="rId19" xr:uid="{1A49B760-B938-4906-9BD1-273E39EE2935}"/>
+    <hyperlink ref="N22" r:id="rId20" xr:uid="{C0B0702D-36C5-4BCA-8F8A-02912AA64261}"/>
+    <hyperlink ref="O15" r:id="rId21" xr:uid="{ED9ABA1F-D9FB-4BE9-877E-D4EBE52032C5}"/>
+    <hyperlink ref="O16" r:id="rId22" xr:uid="{37EF3BFB-AF45-4724-BCE1-14A4B3CB7EEA}"/>
+    <hyperlink ref="O17" r:id="rId23" xr:uid="{5204EB9A-201E-417A-8DFC-65C07B943F2B}"/>
+    <hyperlink ref="O18" r:id="rId24" xr:uid="{D363A2B4-043F-4377-84F8-2F04F01A8667}"/>
+    <hyperlink ref="O19" r:id="rId25" xr:uid="{3FF92DB1-5617-4C07-9FEF-2C95D1E0A85C}"/>
+    <hyperlink ref="O21" r:id="rId26" xr:uid="{99A3A749-C42B-40BE-ADA8-342078D76554}"/>
+    <hyperlink ref="O22" r:id="rId27" xr:uid="{0F024A01-23D1-40AA-975B-8CCF154AD573}"/>
+    <hyperlink ref="O20" r:id="rId28" xr:uid="{2B33E9C3-25D2-431F-A387-7EAAFEB06B1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>